--- a/OUTPUT/LOAN STATISTICS MIN AND MAX DISBURSED AMOUNTS.xlsx
+++ b/OUTPUT/LOAN STATISTICS MIN AND MAX DISBURSED AMOUNTS.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pai_fire\Test\PAI_RUN\OUTPUT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8042DA07-9929-4353-B6FF-60ECE33E3127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -475,8 +481,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +528,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -568,7 +582,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,9 +614,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,6 +666,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -809,14 +859,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -838,13 +896,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>54895633.38</v>
+        <v>54895633.380000003</v>
       </c>
       <c r="D2">
-        <v>54895633.38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>54895633.380000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -858,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -869,10 +927,10 @@
         <v>49500000</v>
       </c>
       <c r="D4">
-        <v>5534380.44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>5534380.4400000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -886,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -900,7 +958,7 @@
         <v>11761983.02</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -914,7 +972,7 @@
         <v>10280220.42</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -922,13 +980,13 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>5939077.93</v>
+        <v>5939077.9299999997</v>
       </c>
       <c r="D8">
         <v>250162.99</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -942,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -956,7 +1014,7 @@
         <v>877500</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -970,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -978,13 +1036,13 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>67593360.88</v>
+        <v>67593360.879999995</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -998,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1006,13 +1064,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>27429501.37</v>
+        <v>27429501.370000001</v>
       </c>
       <c r="D14">
         <v>462726.22</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1026,7 +1084,7 @@
         <v>1441430.17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1040,7 +1098,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1054,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1068,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1082,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1154,7 @@
         <v>2102131.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1104,13 +1162,13 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>6040079.57</v>
+        <v>6040079.5700000003</v>
       </c>
       <c r="D21">
-        <v>6040079.57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>6040079.5700000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1124,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1138,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1152,7 +1210,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1166,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1180,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1188,13 +1246,13 @@
         <v>54</v>
       </c>
       <c r="C27">
-        <v>213095270.67</v>
+        <v>213095270.66999999</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1208,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1222,7 +1280,7 @@
         <v>250000000</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1236,7 +1294,7 @@
         <v>14959500.32</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1250,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1264,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1272,13 +1330,13 @@
         <v>61</v>
       </c>
       <c r="C33">
-        <v>89825448.61</v>
+        <v>89825448.609999999</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1292,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1300,13 +1358,13 @@
         <v>32</v>
       </c>
       <c r="C35">
-        <v>110921898.79</v>
+        <v>110921898.79000001</v>
       </c>
       <c r="D35">
         <v>646011.28</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1320,7 +1378,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1334,7 +1392,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1348,7 +1406,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1356,13 +1414,13 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>307120562.58</v>
+        <v>307120562.57999998</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1370,13 +1428,13 @@
         <v>22</v>
       </c>
       <c r="C40">
-        <v>26984222.65</v>
+        <v>26984222.649999999</v>
       </c>
       <c r="D40">
         <v>994513.26</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1390,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1398,13 +1456,13 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>51633307.16</v>
+        <v>51633307.159999996</v>
       </c>
       <c r="D42">
         <v>25000</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1418,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1426,13 +1484,13 @@
         <v>38</v>
       </c>
       <c r="C44">
-        <v>29046220.38</v>
+        <v>29046220.379999999</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1446,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1460,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1474,7 +1532,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1482,13 +1540,13 @@
         <v>460</v>
       </c>
       <c r="C48">
-        <v>695804208.41</v>
+        <v>695804208.40999997</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1502,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1516,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1530,7 +1588,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1538,13 +1596,13 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>68906977.94</v>
+        <v>68906977.939999998</v>
       </c>
       <c r="D52">
-        <v>20443737.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>20443737.800000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1552,13 +1610,13 @@
         <v>34</v>
       </c>
       <c r="C53">
-        <v>199231705.58</v>
+        <v>199231705.58000001</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1572,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1586,7 +1644,7 @@
         <v>9230000</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1600,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1608,13 +1666,13 @@
         <v>96</v>
       </c>
       <c r="C57">
-        <v>812364212.96</v>
+        <v>812364212.96000004</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1628,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1642,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -1656,7 +1714,7 @@
         <v>7700000</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -1667,10 +1725,10 @@
         <v>24000000</v>
       </c>
       <c r="D61">
-        <v>2171000.99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>2171000.9900000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1684,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1698,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -1712,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -1726,7 +1784,7 @@
         <v>777057.52</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -1740,7 +1798,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1751,10 +1809,10 @@
         <v>55000000</v>
       </c>
       <c r="D67">
-        <v>6154909.57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>6154909.5700000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -1768,7 +1826,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -1782,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -1796,7 +1854,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -1810,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -1824,7 +1882,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -1838,7 +1896,7 @@
         <v>5706466.54</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -1852,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -1863,10 +1921,10 @@
         <v>23000000</v>
       </c>
       <c r="D75">
-        <v>1088601.38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>1088601.3799999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -1874,13 +1932,13 @@
         <v>23</v>
       </c>
       <c r="C76">
-        <v>26543917.05</v>
+        <v>26543917.050000001</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -1894,7 +1952,7 @@
         <v>1182853.23</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -1908,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -1922,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -1936,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -1950,7 +2008,7 @@
         <v>3883.26</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -1958,13 +2016,13 @@
         <v>2</v>
       </c>
       <c r="C82">
-        <v>7578401.18</v>
+        <v>7578401.1799999997</v>
       </c>
       <c r="D82">
-        <v>7496133.64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>7496133.6399999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -1978,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -1992,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2006,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2014,13 +2072,13 @@
         <v>17</v>
       </c>
       <c r="C86">
-        <v>36855690.19</v>
+        <v>36855690.189999998</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2034,7 +2092,7 @@
         <v>142700</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2042,13 +2100,13 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>37360106.29</v>
+        <v>37360106.289999999</v>
       </c>
       <c r="D88">
-        <v>37360106.29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>37360106.289999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -2062,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2076,7 +2134,7 @@
         <v>11731756.82</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -2090,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -2098,13 +2156,13 @@
         <v>16</v>
       </c>
       <c r="C92">
-        <v>28634230.56</v>
+        <v>28634230.559999999</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2118,7 +2176,7 @@
         <v>4035972.81</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2132,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -2146,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -2154,13 +2212,13 @@
         <v>15</v>
       </c>
       <c r="C96">
-        <v>3076154322.09</v>
+        <v>3076154322.0900002</v>
       </c>
       <c r="D96">
-        <v>6636213.9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>6636213.9000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -2174,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -2182,13 +2240,13 @@
         <v>48</v>
       </c>
       <c r="C98">
-        <v>1873369579.11</v>
+        <v>1873369579.1099999</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -2196,13 +2254,13 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>385645133.97</v>
+        <v>385645133.97000003</v>
       </c>
       <c r="D99">
-        <v>385645133.97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>385645133.97000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -2216,7 +2274,7 @@
         <v>4117923.66</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -2230,7 +2288,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -2244,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -2252,13 +2310,13 @@
         <v>34</v>
       </c>
       <c r="C103">
-        <v>43825993.92</v>
+        <v>43825993.920000002</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -2272,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -2286,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -2300,7 +2358,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -2314,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -2322,13 +2380,13 @@
         <v>12</v>
       </c>
       <c r="C108">
-        <v>9012233.6</v>
+        <v>9012233.5999999996</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -2336,13 +2394,13 @@
         <v>6</v>
       </c>
       <c r="C109">
-        <v>41134908.99</v>
+        <v>41134908.990000002</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -2356,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -2370,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -2384,7 +2442,7 @@
         <v>352727.46</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -2398,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -2412,7 +2470,7 @@
         <v>1000468.73</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -2426,7 +2484,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -2434,13 +2492,13 @@
         <v>27</v>
       </c>
       <c r="C116">
-        <v>86265315.42</v>
+        <v>86265315.420000002</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -2448,13 +2506,13 @@
         <v>71</v>
       </c>
       <c r="C117">
-        <v>260571903.55</v>
+        <v>260571903.55000001</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -2468,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -2476,13 +2534,13 @@
         <v>120</v>
       </c>
       <c r="C119">
-        <v>393979484.2</v>
+        <v>393979484.19999999</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -2496,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -2510,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -2524,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -2538,7 +2596,7 @@
         <v>3571428.57</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -2552,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -2566,7 +2624,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -2580,7 +2638,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -2594,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -2602,13 +2660,13 @@
         <v>8</v>
       </c>
       <c r="C128">
-        <v>19625116.78</v>
+        <v>19625116.780000001</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -2622,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -2636,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -2644,13 +2702,13 @@
         <v>4</v>
       </c>
       <c r="C131">
-        <v>21100182.2</v>
+        <v>21100182.199999999</v>
       </c>
       <c r="D131">
         <v>3790159.01</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -2664,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -2672,13 +2730,13 @@
         <v>231</v>
       </c>
       <c r="C133">
-        <v>537364076.4</v>
+        <v>537364076.39999998</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -2692,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -2700,13 +2758,13 @@
         <v>69</v>
       </c>
       <c r="C135">
-        <v>139020031.26</v>
+        <v>139020031.25999999</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -2720,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -2734,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -2742,13 +2800,13 @@
         <v>3</v>
       </c>
       <c r="C138">
-        <v>13942483.45</v>
+        <v>13942483.449999999</v>
       </c>
       <c r="D138">
         <v>5346567.08</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -2756,13 +2814,13 @@
         <v>8</v>
       </c>
       <c r="C139">
-        <v>2683848.8</v>
+        <v>2683848.7999999998</v>
       </c>
       <c r="D139">
         <v>169721.59</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -2770,13 +2828,13 @@
         <v>31</v>
       </c>
       <c r="C140">
-        <v>23930058.71</v>
+        <v>23930058.710000001</v>
       </c>
       <c r="D140">
         <v>119346.7</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -2790,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -2804,7 +2862,7 @@
         <v>919017</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -2818,7 +2876,7 @@
         <v>1080000</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -2832,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -2840,13 +2898,13 @@
         <v>42</v>
       </c>
       <c r="C145">
-        <v>182761153.67</v>
+        <v>182761153.66999999</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -2854,13 +2912,13 @@
         <v>11</v>
       </c>
       <c r="C146">
-        <v>7737841.03</v>
+        <v>7737841.0300000003</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -2874,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -2888,7 +2946,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>151</v>
       </c>
